--- a/biology/Médecine/Marin-Étienne_Lemercier/Marin-Étienne_Lemercier.xlsx
+++ b/biology/Médecine/Marin-Étienne_Lemercier/Marin-Étienne_Lemercier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marin-%C3%89tienne_Lemercier</t>
+          <t>Marin-Étienne_Lemercier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marin-Étienne Lemercier est un médecin français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marin-%C3%89tienne_Lemercier</t>
+          <t>Marin-Étienne_Lemercier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la chirurgie à Paris sous le professeur Disdier, de l'Académie royale de chirurgie, et vint s'établir à Craon : il y acquiert bientôt une assez grande réputation pour s'attirer la jalousie des chirurgiens d'Angers.
 Il est dès 1768, chirurgien de l'hôpital de Craon. 
 Il envoya à l'Académie de chirurgie plusieurs mémoires, un entre autres sur l'hydropisie de l'article du genou et à Antoine Louis de nombreuses observations de clinique ou de technique chirurgicale ; il lui demandait très souvent conseil. Louis, de son côté, lui apprenait les nouvelles scientifiques ; fort enragé contre l'opération de la symphyséotomie que venait de découvrir le médecin Jean-René Sigault (1768), il finit par convertir Lemercier à sa façon de voir. 
-Lemercier avait un renom mérité ; lié avec quelques-unes des célébrités de l'époque, Bouvart[Lequel ?], Sabatier[Lequel ?], Jean-Louis Petit, il entretint une correspondance suivie avec Louis, secrétaire de l'Académie de chirurgie. Le 18 avril 1776, Lemercier obtint-il une des cinq petites médailles d'or que l'on décernait aux chirurgiens provinciaux les plus zélés[1].
+Lemercier avait un renom mérité ; lié avec quelques-unes des célébrités de l'époque, Bouvart[Lequel ?], Sabatier[Lequel ?], Jean-Louis Petit, il entretint une correspondance suivie avec Louis, secrétaire de l'Académie de chirurgie. Le 18 avril 1776, Lemercier obtint-il une des cinq petites médailles d'or que l'on décernait aux chirurgiens provinciaux les plus zélés.
 Lemercier avait deux fils pour lesquels il composa un petit traité d'éducation.
-Une partie de la correspondance de Lemercier avec Louis a été publiée par Guardia[2], et par le docteur Lacronique[3].
+Une partie de la correspondance de Lemercier avec Louis a été publiée par Guardia, et par le docteur Lacronique.
 </t>
         </is>
       </c>
